--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/66.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/66.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2209226068560156</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.566267749997682</v>
+        <v>-1.556335689342275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.01297396674748114</v>
+        <v>0.008856332726158546</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1480182829982745</v>
+        <v>-0.1364523904949571</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2000931275888788</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.573039967267079</v>
+        <v>-1.561848691314631</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02325388562869594</v>
+        <v>0.01867034194746833</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1117591785199919</v>
+        <v>-0.09750486135749283</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.184741449525852</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.646125610116873</v>
+        <v>-1.636918385266824</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0347392748765066</v>
+        <v>-0.04151542719370607</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1185290347607061</v>
+        <v>-0.1045785032886181</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1763411133595355</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.782086233776583</v>
+        <v>-1.778178731307955</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.08345674069988419</v>
+        <v>-0.09544447032771022</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1258057251584792</v>
+        <v>-0.109681473279875</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.1685902571121102</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.824306148667232</v>
+        <v>-1.832620904675503</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1069411059896904</v>
+        <v>-0.1247306700986308</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1236430228858121</v>
+        <v>-0.1081609708086985</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1555503428234877</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.646045335141686</v>
+        <v>-1.655550836615221</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.103410581100613</v>
+        <v>-0.1310503568706531</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1192641016903535</v>
+        <v>-0.1069836045059656</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1335994515323903</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.328134397136101</v>
+        <v>-1.328368138975614</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1111358669479568</v>
+        <v>-0.1438723166327685</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0800458412640256</v>
+        <v>-0.06321957685732126</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1025518347127951</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8319366742894692</v>
+        <v>-0.8163830043423365</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.04722596856578496</v>
+        <v>-0.08386598567142237</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08407060815719146</v>
+        <v>-0.0713525336570819</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.06404833531352686</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3086689705947079</v>
+        <v>-0.2765888868834786</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.05048418814687738</v>
+        <v>-0.08959856331119948</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.01172711532309055</v>
+        <v>0.003836785748330652</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.01942865373056716</v>
       </c>
       <c r="E11" t="n">
-        <v>0.2550817178903464</v>
+        <v>0.3000152417461172</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.07829868003938184</v>
+        <v>-0.1168511303773996</v>
       </c>
       <c r="G11" t="n">
-        <v>0.06125070721689454</v>
+        <v>0.0783382587977348</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.03058983154667358</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8992805236650789</v>
+        <v>0.9572374817304915</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.150067655894208</v>
+        <v>-0.1943526838720029</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1330826438365727</v>
+        <v>0.1451774067646472</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.08521578410580337</v>
       </c>
       <c r="E13" t="n">
-        <v>1.571674733959671</v>
+        <v>1.641948391649261</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3065833952589845</v>
+        <v>-0.3543470054948539</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2363257060409275</v>
+        <v>0.2500118023006369</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1445229004342504</v>
       </c>
       <c r="E14" t="n">
-        <v>2.231591694679712</v>
+        <v>2.306027058926021</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5441076027206222</v>
+        <v>-0.5953419251189596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3482384655654063</v>
+        <v>0.3588536505194582</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2086136837041034</v>
       </c>
       <c r="E15" t="n">
-        <v>2.930002867030283</v>
+        <v>3.009860727149473</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.8397068196817701</v>
+        <v>-0.8908915604777865</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4905565524560506</v>
+        <v>0.5010489639186411</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2779929061645569</v>
       </c>
       <c r="E16" t="n">
-        <v>3.601769043695475</v>
+        <v>3.687811224942256</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.077238897239014</v>
+        <v>-1.126580461643988</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6515188958385015</v>
+        <v>0.6623497214121716</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3533550130164173</v>
       </c>
       <c r="E17" t="n">
-        <v>4.255034199608899</v>
+        <v>4.351748230498099</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.363288540191231</v>
+        <v>-1.417232536506887</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8220103509813068</v>
+        <v>0.8339571561119791</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4340547501635653</v>
       </c>
       <c r="E18" t="n">
-        <v>4.908171859973499</v>
+        <v>5.016565112742749</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.578041413025012</v>
+        <v>-1.629840021278335</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9778823165254714</v>
+        <v>0.9924671777034435</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5189658979504679</v>
       </c>
       <c r="E19" t="n">
-        <v>5.390792880889352</v>
+        <v>5.499896016282309</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.804623826564927</v>
+        <v>-1.858323849916782</v>
       </c>
       <c r="G19" t="n">
-        <v>1.146044223368752</v>
+        <v>1.157751777592986</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6054434292402258</v>
       </c>
       <c r="E20" t="n">
-        <v>5.81516417618323</v>
+        <v>5.929307320802592</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.957179333820511</v>
+        <v>-2.008501801289642</v>
       </c>
       <c r="G20" t="n">
-        <v>1.274407056729944</v>
+        <v>1.284929374555839</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.6877550790021102</v>
       </c>
       <c r="E21" t="n">
-        <v>6.113757177513092</v>
+        <v>6.220958897807518</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.157781774753799</v>
+        <v>-2.20830621452843</v>
       </c>
       <c r="G21" t="n">
-        <v>1.392666261351507</v>
+        <v>1.400465526097552</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.761037457392172</v>
       </c>
       <c r="E22" t="n">
-        <v>6.438176684585255</v>
+        <v>6.549072627757374</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.263610950374451</v>
+        <v>-2.308050232226133</v>
       </c>
       <c r="G22" t="n">
-        <v>1.490527752180135</v>
+        <v>1.495892009345528</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.8206415624127277</v>
       </c>
       <c r="E23" t="n">
-        <v>6.568368528165399</v>
+        <v>6.671181883149639</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.356588259869682</v>
+        <v>-2.397521414128667</v>
       </c>
       <c r="G23" t="n">
-        <v>1.592969638651748</v>
+        <v>1.596969221238973</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.8628069284549036</v>
       </c>
       <c r="E24" t="n">
-        <v>6.708026522741045</v>
+        <v>6.805664502854448</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.414840346520339</v>
+        <v>-2.452322463855872</v>
       </c>
       <c r="G24" t="n">
-        <v>1.600665018135787</v>
+        <v>1.598869062318383</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.8862793102896529</v>
       </c>
       <c r="E25" t="n">
-        <v>6.790313094364403</v>
+        <v>6.88199026406544</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.424114467183042</v>
+        <v>-2.45961725547354</v>
       </c>
       <c r="G25" t="n">
-        <v>1.648704081717884</v>
+        <v>1.64337445297316</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8912402633403721</v>
       </c>
       <c r="E26" t="n">
-        <v>6.791306300429944</v>
+        <v>6.876852665653515</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.444814392647268</v>
+        <v>-2.481324553175398</v>
       </c>
       <c r="G26" t="n">
-        <v>1.681261093222867</v>
+        <v>1.669880934975863</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8794480981039043</v>
       </c>
       <c r="E27" t="n">
-        <v>6.733535076620845</v>
+        <v>6.809804173143469</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.359308951920851</v>
+        <v>-2.386341943319629</v>
       </c>
       <c r="G27" t="n">
-        <v>1.641841358349013</v>
+        <v>1.628525156582809</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.8549562985703735</v>
       </c>
       <c r="E28" t="n">
-        <v>6.618938614494548</v>
+        <v>6.684789278453283</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.300757801637147</v>
+        <v>-2.319091189352497</v>
       </c>
       <c r="G28" t="n">
-        <v>1.593257684150946</v>
+        <v>1.574920361387793</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.8212695889454489</v>
       </c>
       <c r="E29" t="n">
-        <v>6.468667008983971</v>
+        <v>6.528347517987208</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.220330933605606</v>
+        <v>-2.234985838634476</v>
       </c>
       <c r="G29" t="n">
-        <v>1.545017146121322</v>
+        <v>1.524469900511863</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7813772083444823</v>
       </c>
       <c r="E30" t="n">
-        <v>6.294692249525728</v>
+        <v>6.347129122532738</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.181149662628629</v>
+        <v>-2.187781005186669</v>
       </c>
       <c r="G30" t="n">
-        <v>1.477030538214982</v>
+        <v>1.455546751228348</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7384337663660994</v>
       </c>
       <c r="E31" t="n">
-        <v>6.026035517863884</v>
+        <v>6.066549196027042</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.013470192646027</v>
+        <v>-2.001399040004772</v>
       </c>
       <c r="G31" t="n">
-        <v>1.399340102425822</v>
+        <v>1.375363069151049</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.6938615951753988</v>
       </c>
       <c r="E32" t="n">
-        <v>5.77652358077442</v>
+        <v>5.807545923636135</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.896236461481991</v>
+        <v>-1.876317249501931</v>
       </c>
       <c r="G32" t="n">
-        <v>1.320813862483252</v>
+        <v>1.292613735906029</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6489009098033323</v>
       </c>
       <c r="E33" t="n">
-        <v>5.43094296063549</v>
+        <v>5.45087476476852</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.834150064251846</v>
+        <v>-1.808418786666383</v>
       </c>
       <c r="G33" t="n">
-        <v>1.244218944002518</v>
+        <v>1.214002498930909</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6043265322654195</v>
       </c>
       <c r="E34" t="n">
-        <v>5.133739818189737</v>
+        <v>5.146251696184955</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.755891407559897</v>
+        <v>-1.726638262190524</v>
       </c>
       <c r="G34" t="n">
-        <v>1.130677074687493</v>
+        <v>1.097361385966043</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.560203613886211</v>
       </c>
       <c r="E35" t="n">
-        <v>4.743076142378512</v>
+        <v>4.740663171065559</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.708027847109826</v>
+        <v>-1.676576584037556</v>
       </c>
       <c r="G35" t="n">
-        <v>1.055056474042844</v>
+        <v>1.025008449017214</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5174781438593045</v>
       </c>
       <c r="E36" t="n">
-        <v>4.288670988231096</v>
+        <v>4.275723106939276</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.632343498690764</v>
+        <v>-1.5960340256006</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9917557210606156</v>
+        <v>0.9583849416699197</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.47668083455588</v>
       </c>
       <c r="E37" t="n">
-        <v>3.924458703753329</v>
+        <v>3.90521789401455</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.596401559065423</v>
+        <v>-1.561655873972271</v>
       </c>
       <c r="G37" t="n">
-        <v>0.911378434631396</v>
+        <v>0.8796288949356399</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4371886801172039</v>
       </c>
       <c r="E38" t="n">
-        <v>3.58580061970988</v>
+        <v>3.560923247497723</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.5087342030759</v>
+        <v>-1.46974417542216</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8195391409608648</v>
+        <v>0.7851405270839595</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.3995126434376096</v>
       </c>
       <c r="E39" t="n">
-        <v>3.167494020090373</v>
+        <v>3.132141550625959</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.482737703268497</v>
+        <v>-1.444616534169716</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7524009293609053</v>
+        <v>0.7216619099410241</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3634217031725501</v>
       </c>
       <c r="E40" t="n">
-        <v>2.766789676304372</v>
+        <v>2.721686158383501</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.47469289153953</v>
+        <v>-1.440795602752759</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6816959904320784</v>
+        <v>0.6506169828819963</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3277534655175716</v>
       </c>
       <c r="E41" t="n">
-        <v>2.419685405656023</v>
+        <v>2.372282245798931</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.442881965098043</v>
+        <v>-1.40753028264319</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6293031899604636</v>
+        <v>0.598493339680124</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2933090962762214</v>
       </c>
       <c r="E42" t="n">
-        <v>2.051259471990535</v>
+        <v>1.998175677124669</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.409484427382285</v>
+        <v>-1.376926628867741</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5640711155163992</v>
+        <v>0.5335855131750475</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2600343398958844</v>
       </c>
       <c r="E43" t="n">
-        <v>1.807514740961517</v>
+        <v>1.759499287666239</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.382442778878339</v>
+        <v>-1.354503939475252</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4880916385120938</v>
+        <v>0.4586008162554041</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2287396269185028</v>
       </c>
       <c r="E44" t="n">
-        <v>1.585936921217776</v>
+        <v>1.545199732339393</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.378320422799652</v>
+        <v>-1.35459838062253</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4177125215413761</v>
+        <v>0.39081568279659</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2008721726152197</v>
       </c>
       <c r="E45" t="n">
-        <v>1.365303512946816</v>
+        <v>1.324432532443123</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.307097631579918</v>
+        <v>-1.283968207601965</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3606574764324688</v>
+        <v>0.3333655588882362</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1768541290491259</v>
       </c>
       <c r="E46" t="n">
-        <v>1.14132216600485</v>
+        <v>1.101464853815274</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.245699080705781</v>
+        <v>-1.222952143374304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3189554138327284</v>
+        <v>0.2967050795340218</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1570053850975036</v>
       </c>
       <c r="E47" t="n">
-        <v>1.010980790608182</v>
+        <v>0.9755228618626417</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.19339599932408</v>
+        <v>-1.171972812073617</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2449167024049866</v>
+        <v>0.2211537357307101</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.141683179624382</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8380181254449348</v>
+        <v>0.8093284789209872</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.117933587601122</v>
+        <v>-1.098633752145294</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1811956863173708</v>
+        <v>0.1626647592022979</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.1300148397657241</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6742162515676575</v>
+        <v>0.6455565114070145</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.056438234551026</v>
+        <v>-1.039113006082869</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1352264578797843</v>
+        <v>0.1161745304355607</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.1217085636705722</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5921563386977674</v>
+        <v>0.5670349935218084</v>
       </c>
       <c r="F50" t="n">
-        <v>-0.997148869299432</v>
+        <v>-0.9826922906798459</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1160627750779484</v>
+        <v>0.1008656204617902</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1161532300884033</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4713708333865165</v>
+        <v>0.4479620210145327</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9762537654641653</v>
+        <v>-0.9640559042836457</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1022413131738071</v>
+        <v>0.09167807085075813</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1123903100959079</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3265657962842172</v>
+        <v>0.3080789417045406</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.970868259040635</v>
+        <v>-0.9658786184261119</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04748433598199873</v>
+        <v>0.03450969636511716</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.1099284152914252</v>
       </c>
       <c r="E53" t="n">
-        <v>0.261533622268558</v>
+        <v>0.2433001847674108</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9448662501663083</v>
+        <v>-0.9335104892156846</v>
       </c>
       <c r="G53" t="n">
-        <v>0.04917168448003306</v>
+        <v>0.04185879164247007</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.1081296371842478</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1514986675557908</v>
+        <v>0.1396793579739439</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9101827388284477</v>
+        <v>-0.902020662674943</v>
       </c>
       <c r="G54" t="n">
-        <v>0.009863704963790985</v>
+        <v>0.002900244371156743</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1065522335391046</v>
       </c>
       <c r="E55" t="n">
-        <v>0.09234388093906833</v>
+        <v>0.09015756837958167</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9186973952651237</v>
+        <v>-0.9157508314700489</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.004875410088068655</v>
+        <v>-0.009380252813231224</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1051660323795954</v>
       </c>
       <c r="E56" t="n">
-        <v>0.01407420611327033</v>
+        <v>0.0121853831677095</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9263982838160874</v>
+        <v>-0.9273206590211696</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.03897181229368415</v>
+        <v>-0.04288954588660156</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1040496038850535</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.08319387950662697</v>
+        <v>-0.08365506710916808</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9526686629505958</v>
+        <v>-0.9584736454699528</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.07663966388553091</v>
+        <v>-0.08120274531818161</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1030567314306819</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1237563522625457</v>
+        <v>-0.1219005837185322</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9500959286968299</v>
+        <v>-0.9584413780779661</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1032453090928764</v>
+        <v>-0.1067648158481048</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1022393179704684</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.1976313657016722</v>
+        <v>-0.1950484003236178</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.9578888973663896</v>
+        <v>-0.966036020338242</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.11686372253037</v>
+        <v>-0.1198307485740218</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1014215865099033</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.2770296122374428</v>
+        <v>-0.2725357876461293</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.991021999869769</v>
+        <v>-1.004941050959431</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1262039519961683</v>
+        <v>-0.1281415695344894</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.09989107557539671</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3550301297934984</v>
+        <v>-0.3480666692008641</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.9719259998901492</v>
+        <v>-0.9862637400660771</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1627432318780424</v>
+        <v>-0.1661163548549898</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.09762752561292233</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.4787747910527945</v>
+        <v>-0.4734546064227982</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.001882731806744</v>
+        <v>-1.024428194690694</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1849290313927756</v>
+        <v>-0.1870445130918038</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.09414359495242346</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.5310637062624034</v>
+        <v>-0.5257482436897709</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.028539532635532</v>
+        <v>-1.053544400396514</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2183800857586579</v>
+        <v>-0.2218130214622147</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.08937029582038816</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6710931693506764</v>
+        <v>-0.6684535392842552</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.067747561937571</v>
+        <v>-1.095072533883351</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.266472665990879</v>
+        <v>-0.2713552733051538</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.08362098231744614</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8300376202196199</v>
+        <v>-0.834401588233426</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.129556144792806</v>
+        <v>-1.162473606676568</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3273132270865146</v>
+        <v>-0.3346560262873823</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.07712448527616764</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9388031285110581</v>
+        <v>-0.9453038274820299</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.158050612945713</v>
+        <v>-1.190472258806264</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3604117011692254</v>
+        <v>-0.3683573496935513</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.07151235543467388</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.023451515825927</v>
+        <v>-1.036426155442809</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.215522773121765</v>
+        <v>-1.251974694942407</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4195538956329775</v>
+        <v>-0.4285163605096636</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.06891703399974528</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.120237951594707</v>
+        <v>-1.141224348539009</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.274457984071066</v>
+        <v>-1.318018176243502</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4397076364621115</v>
+        <v>-0.4496633074043383</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.0711537150469707</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.274332849550923</v>
+        <v>-1.30742738858583</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.330788193374614</v>
+        <v>-1.375228262235857</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4718443848617076</v>
+        <v>-0.4839485919045099</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.08022870543623226</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.330511166009265</v>
+        <v>-1.366268945397414</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.416535246036151</v>
+        <v>-1.464168999694513</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5081286736459311</v>
+        <v>-0.5235823933788613</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.09639086513395631</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.386713092754428</v>
+        <v>-1.4275344916558</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.452348116093545</v>
+        <v>-1.503112593784174</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5627502851933075</v>
+        <v>-0.5818116567522589</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1193112738992405</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.457853247970294</v>
+        <v>-1.504504813696965</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.499649751717313</v>
+        <v>-1.549543009824302</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5530873818076426</v>
+        <v>-0.5737322166026224</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.1483648092036464</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.50291426737489</v>
+        <v>-1.558705375129393</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.506503817981017</v>
+        <v>-1.553984891784612</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.580330504759115</v>
+        <v>-0.604258743441128</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.1826556217056119</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.549016500428227</v>
+        <v>-1.609865718629029</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.539336282832227</v>
+        <v>-1.587104615125461</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5865730645941934</v>
+        <v>-0.6095332815166066</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2212202422400395</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.543555441086874</v>
+        <v>-1.609982196044006</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.530657928406936</v>
+        <v>-1.574764305214464</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6056785086885412</v>
+        <v>-0.6301639501394947</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2632674157448421</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.457613997063856</v>
+        <v>-1.524435043810874</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.592227260355734</v>
+        <v>-1.644019572532572</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5875788628127045</v>
+        <v>-0.6130669544439266</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.3074661726839154</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.399733378925827</v>
+        <v>-1.469390021119868</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.601010287052592</v>
+        <v>-1.6528631989656</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5635388687730791</v>
+        <v>-0.5872152643956842</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.3531242259705291</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.229882549565391</v>
+        <v>-1.296343932943191</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.549790917835907</v>
+        <v>-1.596023007466751</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5237445173483551</v>
+        <v>-0.5475704447874837</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.4000369769690673</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.107872457377768</v>
+        <v>-1.173955289156896</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.527728678822196</v>
+        <v>-1.567538770438133</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5281533449071184</v>
+        <v>-0.5547322317894018</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.4471717621930453</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.9283390493926511</v>
+        <v>-0.991479252424507</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.494701035599943</v>
+        <v>-1.529589169423573</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5143350310412197</v>
+        <v>-0.5421998915456058</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.4949830413136385</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.7826092760565876</v>
+        <v>-0.8458100788246135</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.462744512389736</v>
+        <v>-1.491530174080083</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4822911497697803</v>
+        <v>-0.5085253264644989</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.5435492279118158</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.5759846379652037</v>
+        <v>-0.6319394437083219</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.457641542398479</v>
+        <v>-1.481265208380521</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4359173984180194</v>
+        <v>-0.4591011260556572</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.5921457536467525</v>
       </c>
       <c r="E83" t="n">
-        <v>-0.3681794855328443</v>
+        <v>-0.42312691903833</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.368198692840128</v>
+        <v>-1.382119317948912</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.3534860170355024</v>
+        <v>-0.3740710391038728</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.6405016815685848</v>
       </c>
       <c r="E84" t="n">
-        <v>-0.1792468223648802</v>
+        <v>-0.2291652647778102</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.338792080606428</v>
+        <v>-1.349872388210824</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3309759695817813</v>
+        <v>-0.3515751578222434</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.687273420767882</v>
       </c>
       <c r="E85" t="n">
-        <v>0.01285591531338359</v>
+        <v>-0.03509500319792056</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.217837368239638</v>
+        <v>-1.223898128866206</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3018928182775085</v>
+        <v>-0.3255534737089004</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.7302107126454495</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2731278471160588</v>
+        <v>0.2312919928910079</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.114595880054404</v>
+        <v>-1.115439554303421</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2386613221366172</v>
+        <v>-0.2603701938575963</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.7679308791101042</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5031754637515182</v>
+        <v>0.467268939556407</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.9879471535163081</v>
+        <v>-0.9814614077269886</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.1757949984318677</v>
+        <v>-0.1958590201710876</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.7978485928579025</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6736228463589271</v>
+        <v>0.639381634394152</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.8401105555863837</v>
+        <v>-0.8307805572448739</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.1521107327136563</v>
+        <v>-0.1719874461774414</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.8174209224151745</v>
       </c>
       <c r="E89" t="n">
-        <v>0.8522740166265552</v>
+        <v>0.8255770783101742</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.724427233256829</v>
+        <v>-0.7146321122649748</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.09621731371626886</v>
+        <v>-0.1135551343373959</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.8237806094116429</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9875499419685002</v>
+        <v>0.9647754593024005</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.5423856258019192</v>
+        <v>-0.5273159667345865</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.07759037143479652</v>
+        <v>-0.09566955506205622</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.813077138025849</v>
       </c>
       <c r="E91" t="n">
-        <v>1.106803926674726</v>
+        <v>1.086256681065266</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.3466028314180545</v>
+        <v>-0.3287487325251408</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09850436349951877</v>
+        <v>-0.1153133136958888</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.7826250302816318</v>
       </c>
       <c r="E92" t="n">
-        <v>1.165503821765392</v>
+        <v>1.149417346345699</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.2067213261271837</v>
+        <v>-0.1914974131859634</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.06096872951386127</v>
+        <v>-0.07694030153769935</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.7317364632305339</v>
       </c>
       <c r="E93" t="n">
-        <v>1.19621450884109</v>
+        <v>1.182194720527665</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1043486964969082</v>
+        <v>-0.09105453099840261</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.05977719703903665</v>
+        <v>-0.07402207008680788</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.6629205238634031</v>
       </c>
       <c r="E94" t="n">
-        <v>1.17854614420449</v>
+        <v>1.169355446555215</v>
       </c>
       <c r="F94" t="n">
-        <v>0.04438824037040027</v>
+        <v>0.062305300028166</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.02463092407951359</v>
+        <v>-0.03690669920653765</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.5820893194410589</v>
       </c>
       <c r="E95" t="n">
-        <v>1.187020663153572</v>
+        <v>1.183565691182317</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1256548476031548</v>
+        <v>0.1434900582666129</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.06022421846948604</v>
+        <v>-0.07048839715948782</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.4961448545544406</v>
       </c>
       <c r="E96" t="n">
-        <v>1.106638654666989</v>
+        <v>1.103967544218142</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2061643516385637</v>
+        <v>0.2248117561686129</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.08871081652678589</v>
+        <v>-0.09693349241646068</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.4128897894710658</v>
       </c>
       <c r="E97" t="n">
-        <v>1.055623120926512</v>
+        <v>1.054837685384983</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2535989918780812</v>
+        <v>0.2733198774488575</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.0567094337716216</v>
+        <v>-0.06179823759078673</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.3372653285238984</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9390953373383798</v>
+        <v>0.9359126706751099</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2362202467598003</v>
+        <v>0.2535281610176227</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.113570874528609</v>
+        <v>-0.1189178174836674</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.2734070002744824</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9035728738088659</v>
+        <v>0.9043000706429069</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2184763292053776</v>
+        <v>0.232266310727093</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1009393710801709</v>
+        <v>-0.1050601531397361</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.2158488633157377</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8474811284021946</v>
+        <v>0.8468515207536743</v>
       </c>
       <c r="F100" t="n">
-        <v>0.2109839981879864</v>
+        <v>0.2245945415298734</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1028848587140986</v>
+        <v>-0.1064185316414186</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>0.1655078453069968</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7875849787793395</v>
+        <v>0.790534690612657</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1886848692965195</v>
+        <v>0.1999863265874585</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.09056815908992071</v>
+        <v>-0.09215004830682789</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>0.1097749921616762</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7757404848915519</v>
+        <v>0.7786996408395971</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1618919158137392</v>
+        <v>0.1687388989913972</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.07522304667636029</v>
+        <v>-0.07514277170117396</v>
       </c>
     </row>
   </sheetData>
